--- a/genealogy/Cropley-BDM.xlsx
+++ b/genealogy/Cropley-BDM.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10158" uniqueCount="3271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10165" uniqueCount="3273">
   <si>
     <t>Year</t>
   </si>
@@ -9981,6 +9981,12 @@
   </si>
   <si>
     <t>married: 1957-03-22</t>
+  </si>
+  <si>
+    <t>17312</t>
+  </si>
+  <si>
+    <t>WOOD, Thelma Laura</t>
   </si>
 </sst>
 </file>
@@ -10626,8 +10632,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:M1048" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A4:M1048"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:M1049" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A4:M1049"/>
   <sortState ref="A5:M1041">
     <sortCondition ref="A5:A1041"/>
     <sortCondition ref="B5:B1041"/>
@@ -10938,10 +10944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1048"/>
+  <dimension ref="A1:M1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1029" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1042" sqref="M1042"/>
+    <sheetView tabSelected="1" topLeftCell="A948" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G967" sqref="G967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10952,12 +10958,13 @@
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
     <col min="5" max="5" width="2.5546875" customWidth="1"/>
     <col min="6" max="6" width="4.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
     <col min="10" max="10" width="33.21875" customWidth="1"/>
-    <col min="11" max="12" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="33" customWidth="1"/>
     <col min="14" max="14" width="46.5546875" customWidth="1"/>
     <col min="15" max="15" width="17.44140625" customWidth="1"/>
     <col min="16" max="16" width="22.77734375" customWidth="1"/>
@@ -13717,7 +13724,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>55</v>
       </c>
@@ -14806,7 +14813,7 @@
       <c r="L119" s="9"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>55</v>
       </c>
@@ -15804,7 +15811,7 @@
       <c r="L149" s="9"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>55</v>
       </c>
@@ -27085,7 +27092,7 @@
       </c>
       <c r="M474" s="4"/>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>5</v>
       </c>
@@ -38797,7 +38804,7 @@
       <c r="C781" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D781" s="2" t="s">
+      <c r="D781" s="15" t="s">
         <v>1988</v>
       </c>
       <c r="E781" s="2" t="s">
@@ -39045,7 +39052,7 @@
       <c r="C789" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D789" s="2" t="s">
+      <c r="D789" s="15" t="s">
         <v>1992</v>
       </c>
       <c r="E789" s="2" t="s">
@@ -39507,7 +39514,7 @@
       <c r="C803" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D803" s="2" t="s">
+      <c r="D803" s="15" t="s">
         <v>2001</v>
       </c>
       <c r="E803" s="2" t="s">
@@ -39705,7 +39712,7 @@
       <c r="C809" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D809" s="2" t="s">
+      <c r="D809" s="15" t="s">
         <v>2004</v>
       </c>
       <c r="E809" s="2" t="s">
@@ -40002,7 +40009,7 @@
       <c r="C818" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D818" s="2" t="s">
+      <c r="D818" s="15" t="s">
         <v>2007</v>
       </c>
       <c r="E818" s="2" t="s">
@@ -40200,7 +40207,7 @@
       <c r="C824" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D824" s="2" t="s">
+      <c r="D824" s="15" t="s">
         <v>2010</v>
       </c>
       <c r="E824" s="2" t="s">
@@ -40299,7 +40306,7 @@
       <c r="C827" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D827" s="2" t="s">
+      <c r="D827" s="15" t="s">
         <v>2012</v>
       </c>
       <c r="E827" s="2" t="s">
@@ -40596,7 +40603,7 @@
       <c r="C836" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D836" s="2" t="s">
+      <c r="D836" s="15" t="s">
         <v>2016</v>
       </c>
       <c r="E836" s="2"/>
@@ -40658,7 +40665,7 @@
       <c r="C838" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D838" s="2" t="s">
+      <c r="D838" s="15" t="s">
         <v>2017</v>
       </c>
       <c r="E838" s="2"/>
@@ -40782,7 +40789,7 @@
       <c r="C842" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D842" s="2" t="s">
+      <c r="D842" s="15" t="s">
         <v>2019</v>
       </c>
       <c r="E842" s="2"/>
@@ -40906,7 +40913,7 @@
       <c r="C846" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D846" s="2" t="s">
+      <c r="D846" s="15" t="s">
         <v>2020</v>
       </c>
       <c r="E846" s="2"/>
@@ -41218,7 +41225,7 @@
       <c r="C856" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D856" s="2" t="s">
+      <c r="D856" s="15" t="s">
         <v>2027</v>
       </c>
       <c r="E856" s="2"/>
@@ -41590,7 +41597,7 @@
       <c r="C868" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D868" s="2" t="s">
+      <c r="D868" s="15" t="s">
         <v>2031</v>
       </c>
       <c r="E868" s="2"/>
@@ -41621,7 +41628,7 @@
       <c r="C869" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D869" s="2" t="s">
+      <c r="D869" s="15" t="s">
         <v>2030</v>
       </c>
       <c r="E869" s="2"/>
@@ -41931,7 +41938,7 @@
       <c r="C879" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D879" s="2" t="s">
+      <c r="D879" s="15" t="s">
         <v>1601</v>
       </c>
       <c r="E879" s="2"/>
@@ -42266,7 +42273,7 @@
       <c r="C890" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D890" s="2" t="s">
+      <c r="D890" s="15" t="s">
         <v>2043</v>
       </c>
       <c r="E890" s="2"/>
@@ -42324,7 +42331,7 @@
       <c r="C892" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D892" s="2" t="s">
+      <c r="D892" s="15" t="s">
         <v>2044</v>
       </c>
       <c r="E892" s="2"/>
@@ -42585,7 +42592,7 @@
       <c r="C901" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D901" s="2" t="s">
+      <c r="D901" s="15" t="s">
         <v>1152</v>
       </c>
       <c r="E901" s="2"/>
@@ -42672,7 +42679,7 @@
       <c r="C904" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D904" s="2" t="s">
+      <c r="D904" s="15" t="s">
         <v>2047</v>
       </c>
       <c r="E904" s="2"/>
@@ -43376,7 +43383,7 @@
       <c r="C928" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D928" s="2" t="s">
+      <c r="D928" s="15" t="s">
         <v>2065</v>
       </c>
       <c r="E928" s="2"/>
@@ -43405,7 +43412,7 @@
       <c r="C929" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D929" s="2" t="s">
+      <c r="D929" s="15" t="s">
         <v>1407</v>
       </c>
       <c r="E929" s="2"/>
@@ -43434,7 +43441,7 @@
       <c r="C930" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D930" s="2" t="s">
+      <c r="D930" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="E930" s="2"/>
@@ -43579,7 +43586,7 @@
       <c r="C935" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D935" s="2" t="s">
+      <c r="D935" s="15" t="s">
         <v>2069</v>
       </c>
       <c r="E935" s="2"/>
@@ -43724,7 +43731,7 @@
       <c r="C940" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D940" s="2" t="s">
+      <c r="D940" s="15" t="s">
         <v>2072</v>
       </c>
       <c r="E940" s="2"/>
@@ -43873,7 +43880,7 @@
       <c r="C945" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D945" s="2" t="s">
+      <c r="D945" s="15" t="s">
         <v>2076</v>
       </c>
       <c r="E945" s="2"/>
@@ -44283,7 +44290,7 @@
       <c r="C959" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D959" s="2" t="s">
+      <c r="D959" s="15" t="s">
         <v>2087</v>
       </c>
       <c r="E959" s="2"/>
@@ -44341,7 +44348,7 @@
       <c r="C961" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D961" s="2" t="s">
+      <c r="D961" s="15" t="s">
         <v>2088</v>
       </c>
       <c r="E961" s="2"/>
@@ -44399,7 +44406,7 @@
       <c r="C963" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D963" s="2" t="s">
+      <c r="D963" s="15" t="s">
         <v>2093</v>
       </c>
       <c r="E963" s="2"/>
@@ -44573,7 +44580,7 @@
       <c r="C969" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D969" s="2" t="s">
+      <c r="D969" s="15" t="s">
         <v>2096</v>
       </c>
       <c r="E969" s="2"/>
@@ -44631,7 +44638,7 @@
       <c r="C971" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D971" s="2" t="s">
+      <c r="D971" s="15" t="s">
         <v>2090</v>
       </c>
       <c r="E971" s="2"/>
@@ -44834,7 +44841,7 @@
       <c r="C978" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D978" s="2" t="s">
+      <c r="D978" s="15" t="s">
         <v>2102</v>
       </c>
       <c r="E978" s="2"/>
@@ -44863,7 +44870,7 @@
       <c r="C979" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D979" s="2" t="s">
+      <c r="D979" s="15" t="s">
         <v>2100</v>
       </c>
       <c r="E979" s="2"/>
@@ -45124,7 +45131,7 @@
       <c r="C988" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D988" s="2" t="s">
+      <c r="D988" s="15" t="s">
         <v>2108</v>
       </c>
       <c r="E988" s="2"/>
@@ -45153,7 +45160,7 @@
       <c r="C989" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D989" s="2" t="s">
+      <c r="D989" s="15" t="s">
         <v>2107</v>
       </c>
       <c r="E989" s="2"/>
@@ -45240,7 +45247,7 @@
       <c r="C992" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D992" s="2" t="s">
+      <c r="D992" s="15" t="s">
         <v>2110</v>
       </c>
       <c r="E992" s="2"/>
@@ -45269,7 +45276,7 @@
       <c r="C993" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D993" s="2" t="s">
+      <c r="D993" s="15" t="s">
         <v>2111</v>
       </c>
       <c r="E993" s="2"/>
@@ -45443,7 +45450,7 @@
       <c r="C999" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D999" s="9" t="s">
+      <c r="D999" s="17" t="s">
         <v>2917</v>
       </c>
       <c r="E999" s="9"/>
@@ -45503,7 +45510,7 @@
       <c r="C1001" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1001" s="9" t="s">
+      <c r="D1001" s="17" t="s">
         <v>2927</v>
       </c>
       <c r="E1001" s="9" t="s">
@@ -45565,7 +45572,7 @@
       <c r="C1003" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1003" s="9" t="s">
+      <c r="D1003" s="17" t="s">
         <v>2916</v>
       </c>
       <c r="E1003" s="9" t="s">
@@ -45809,7 +45816,7 @@
       <c r="C1011" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1011" s="9" t="s">
+      <c r="D1011" s="17" t="s">
         <v>2888</v>
       </c>
       <c r="E1011" s="9" t="s">
@@ -45931,7 +45938,7 @@
       <c r="C1015" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1015" s="9" t="s">
+      <c r="D1015" s="17" t="s">
         <v>2925</v>
       </c>
       <c r="E1015" s="9"/>
@@ -46053,7 +46060,7 @@
       <c r="C1019" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1019" s="9" t="s">
+      <c r="D1019" s="17" t="s">
         <v>2940</v>
       </c>
       <c r="E1019" s="9" t="s">
@@ -46115,7 +46122,7 @@
       <c r="C1021" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1021" s="9" t="s">
+      <c r="D1021" s="17" t="s">
         <v>2934</v>
       </c>
       <c r="E1021" s="9"/>
@@ -46175,7 +46182,7 @@
       <c r="C1023" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1023" s="9" t="s">
+      <c r="D1023" s="17" t="s">
         <v>2943</v>
       </c>
       <c r="E1023" s="9" t="s">
@@ -46450,7 +46457,7 @@
       <c r="C1032" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1032" s="9" t="s">
+      <c r="D1032" s="17" t="s">
         <v>2972</v>
       </c>
       <c r="E1032" s="9" t="s">
@@ -46574,7 +46581,7 @@
       <c r="C1036" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1036" s="9" t="s">
+      <c r="D1036" s="17" t="s">
         <v>2985</v>
       </c>
       <c r="E1036" s="9" t="s">
@@ -46605,7 +46612,7 @@
       <c r="C1037" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1037" s="9" t="s">
+      <c r="D1037" s="17" t="s">
         <v>2988</v>
       </c>
       <c r="E1037" s="9" t="s">
@@ -46880,7 +46887,7 @@
       <c r="C1046" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1046" s="9" t="s">
+      <c r="D1046" s="17" t="s">
         <v>3184</v>
       </c>
       <c r="E1046" s="9"/>
@@ -46956,6 +46963,35 @@
       <c r="K1048" s="18"/>
       <c r="L1048" s="17"/>
       <c r="M1048" s="17"/>
+    </row>
+    <row r="1049" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1049" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1049" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C1049" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1049" s="19" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E1049" s="19"/>
+      <c r="F1049" s="19"/>
+      <c r="G1049" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1049" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="I1049" s="19"/>
+      <c r="J1049" s="19" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K1049" s="20"/>
+      <c r="L1049" s="19"/>
+      <c r="M1049" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
